--- a/Data/OI_influence_QCA_codes.xlsx
+++ b/Data/OI_influence_QCA_codes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louise\Desktop\York PhD\Experiment\Gorilla\Experiment 1\Data\OI_perception_data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FFD1D0-CAAD-4766-B39C-8B7FEC6F485C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4671FD26-B0FB-4BAA-958A-FDA42F9AB5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OI_influence_QCA_codes" sheetId="1" r:id="rId1"/>
@@ -2713,7 +2713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2750,7 +2750,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2966,13 +2965,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AI289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10112,7 +10111,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>5304273</v>
       </c>
@@ -10209,7 +10208,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>5305661</v>
       </c>
@@ -10308,7 +10307,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>5308502</v>
       </c>
@@ -10407,7 +10406,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>5308657</v>
       </c>
@@ -10504,7 +10503,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>5308960</v>
       </c>
@@ -10603,7 +10602,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>5312160</v>
       </c>
@@ -10702,7 +10701,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>5312301</v>
       </c>
@@ -10797,7 +10796,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>5312548</v>
       </c>
@@ -10896,7 +10895,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>5312548</v>
       </c>
@@ -10986,7 +10985,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>5315514</v>
       </c>
@@ -11083,7 +11082,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>5322227</v>
       </c>
@@ -11182,7 +11181,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>5323642</v>
       </c>
@@ -11283,7 +11282,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>5323642</v>
       </c>
@@ -11380,7 +11379,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>5323642</v>
       </c>
@@ -11467,7 +11466,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>5327303</v>
       </c>
@@ -11566,7 +11565,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>5328002</v>
       </c>
@@ -11665,7 +11664,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>5330132</v>
       </c>
@@ -11859,7 +11858,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="94" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>5332522</v>
       </c>
@@ -11958,7 +11957,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="95" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>5332522</v>
       </c>
@@ -12049,7 +12048,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>5332522</v>
       </c>
@@ -12138,7 +12137,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>5332522</v>
       </c>
@@ -12225,7 +12224,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>5332693</v>
       </c>
@@ -12324,7 +12323,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>5333575</v>
       </c>
@@ -12423,7 +12422,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>5333575</v>
       </c>
@@ -12516,7 +12515,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>5335169</v>
       </c>
@@ -13003,7 +13002,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>5336201</v>
       </c>
@@ -13102,7 +13101,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>5336201</v>
       </c>
@@ -13191,7 +13190,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>5336201</v>
       </c>
@@ -14044,7 +14043,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>5337460</v>
       </c>
@@ -14428,7 +14427,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="121" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>5338550</v>
       </c>
@@ -14628,7 +14627,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="123" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>5338600</v>
       </c>
@@ -15103,7 +15102,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="128" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>5339584</v>
       </c>
@@ -15400,7 +15399,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="131" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>5339906</v>
       </c>
@@ -15499,7 +15498,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="132" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>5340413</v>
       </c>
@@ -15633,7 +15632,7 @@
       <c r="L133" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M133" s="26" t="s">
+      <c r="M133" s="1" t="s">
         <v>836</v>
       </c>
       <c r="N133" s="1" t="s">
@@ -15883,7 +15882,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>5341833</v>
       </c>
@@ -15982,7 +15981,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="137" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>5341870</v>
       </c>
@@ -16077,7 +16076,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="138" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>5341870</v>
       </c>
@@ -16440,7 +16439,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="142" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>5343885</v>
       </c>
@@ -16537,7 +16536,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="143" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>5344305</v>
       </c>
@@ -16634,7 +16633,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="144" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>5353998</v>
       </c>
@@ -16731,7 +16730,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="145" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>5354235</v>
       </c>
@@ -16830,7 +16829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>5356536</v>
       </c>
@@ -16925,7 +16924,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="147" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>5356537</v>
       </c>
@@ -17024,7 +17023,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>5357670</v>
       </c>
@@ -17121,7 +17120,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="149" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>5357670</v>
       </c>
@@ -17686,7 +17685,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>5359677</v>
       </c>
@@ -17975,7 +17974,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="158" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>5366758</v>
       </c>
@@ -18074,7 +18073,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="159" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>5366758</v>
       </c>
@@ -18171,7 +18170,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>5366866</v>
       </c>
@@ -18656,7 +18655,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="165" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>5374409</v>
       </c>
@@ -18755,7 +18754,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="166" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>5374964</v>
       </c>
@@ -18947,7 +18946,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="168" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>5380819</v>
       </c>
@@ -19133,7 +19132,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="170" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>5384030</v>
       </c>
@@ -19232,7 +19231,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="171" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>5384032</v>
       </c>
@@ -19331,7 +19330,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="172" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>5384657</v>
       </c>
@@ -19426,7 +19425,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>5409941</v>
       </c>
@@ -19523,7 +19522,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="174" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>5409941</v>
       </c>
@@ -19613,7 +19612,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="175" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>5417849</v>
       </c>
@@ -19714,7 +19713,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="176" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>5418540</v>
       </c>
@@ -19811,7 +19810,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="177" spans="1:35" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:35" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>5418540</v>
       </c>
@@ -19901,7 +19900,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="178" spans="1:35" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:35" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>5434242</v>
       </c>
@@ -20086,7 +20085,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" spans="1:35" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:35" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>5440728</v>
       </c>
@@ -20751,7 +20750,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="187" spans="1:35" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:35" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>5499381</v>
       </c>
@@ -20848,7 +20847,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="188" spans="1:35" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:35" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>5499420</v>
       </c>
@@ -20947,7 +20946,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="189" spans="1:35" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:35" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>5499420</v>
       </c>
@@ -21048,7 +21047,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="190" spans="1:35" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:35" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>5499421</v>
       </c>
@@ -21709,7 +21708,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="197" spans="1:35" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:35" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>5502013</v>
       </c>
@@ -21810,7 +21809,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="198" spans="1:35" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:35" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>5503474</v>
       </c>
@@ -21911,7 +21910,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="199" spans="1:35" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:35" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>5510526</v>
       </c>
@@ -22010,7 +22009,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="200" spans="1:35" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:35" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>5510526</v>
       </c>
@@ -22100,7 +22099,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="201" spans="1:35" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:35" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>5521508</v>
       </c>
@@ -22290,7 +22289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="203" spans="1:35" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:35" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>5557001</v>
       </c>
@@ -22387,7 +22386,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="204" spans="1:35" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:35" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>5586643</v>
       </c>
@@ -22486,7 +22485,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="205" spans="1:35" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:35" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>5586843</v>
       </c>
@@ -22581,7 +22580,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="206" spans="1:35" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:35" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>5587514</v>
       </c>
@@ -22676,7 +22675,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="207" spans="1:35" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:35" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>5588274</v>
       </c>
@@ -22777,7 +22776,7 @@
       <c r="AH207" s="3"/>
       <c r="AI207" s="3"/>
     </row>
-    <row r="208" spans="1:35" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:35" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>5592006</v>
       </c>
@@ -22876,7 +22875,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="209" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>5592006</v>
       </c>
@@ -22965,7 +22964,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="210" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>5595978</v>
       </c>
@@ -23060,7 +23059,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="211" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>5595978</v>
       </c>
@@ -23150,7 +23149,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="212" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>5602966</v>
       </c>
@@ -23247,7 +23246,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="213" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>5602966</v>
       </c>
@@ -23441,7 +23440,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="215" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>5615580</v>
       </c>
@@ -23542,7 +23541,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="216" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>5620967</v>
       </c>
@@ -23639,7 +23638,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="217" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>5621683</v>
       </c>
@@ -23831,7 +23830,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>5627982</v>
       </c>
@@ -23926,7 +23925,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="220" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>5627983</v>
       </c>
@@ -24021,7 +24020,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="221" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>5629029</v>
       </c>
@@ -24120,7 +24119,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="222" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>5637584</v>
       </c>
@@ -24215,7 +24214,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="223" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>5642980</v>
       </c>
@@ -24314,7 +24313,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="224" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>5649032</v>
       </c>
@@ -24413,7 +24412,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="225" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>5655323</v>
       </c>
@@ -24508,7 +24507,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="226" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>5659195</v>
       </c>
@@ -24607,7 +24606,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="227" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>5659326</v>
       </c>
@@ -24706,7 +24705,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="228" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>5663887</v>
       </c>
@@ -24805,7 +24804,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="229" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>5663887</v>
       </c>
@@ -24895,7 +24894,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="230" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>5664502</v>
       </c>
@@ -24994,7 +24993,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="231" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>5664502</v>
       </c>
@@ -25084,7 +25083,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="232" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>5666899</v>
       </c>
@@ -25183,7 +25182,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="233" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>5667662</v>
       </c>
@@ -25280,7 +25279,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="234" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>5670727</v>
       </c>
@@ -25379,7 +25378,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="235" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>5671003</v>
       </c>
@@ -25476,7 +25475,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="236" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>5671003</v>
       </c>
@@ -25575,7 +25574,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="237" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>5672324</v>
       </c>
@@ -25674,7 +25673,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="238" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>5674519</v>
       </c>
@@ -25767,7 +25766,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="239" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>5676564</v>
       </c>
@@ -25868,7 +25867,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="240" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>5676564</v>
       </c>
@@ -25958,7 +25957,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="241" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>5676564</v>
       </c>
@@ -26048,7 +26047,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="242" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>5690497</v>
       </c>
@@ -26145,7 +26144,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="243" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>5690497</v>
       </c>
@@ -26235,7 +26234,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="244" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>5690497</v>
       </c>
@@ -26325,7 +26324,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="245" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>5691858</v>
       </c>
@@ -26424,7 +26423,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="246" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>5691858</v>
       </c>
@@ -26512,7 +26511,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="247" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>5692078</v>
       </c>
@@ -26609,7 +26608,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="248" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>5692100</v>
       </c>
@@ -26708,7 +26707,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="249" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>5696781</v>
       </c>
@@ -26803,7 +26802,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="250" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>5704997</v>
       </c>
@@ -26900,7 +26899,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="251" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>5706490</v>
       </c>
@@ -26999,7 +26998,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="252" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>5706491</v>
       </c>
@@ -27096,7 +27095,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="253" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>5719579</v>
       </c>
@@ -27292,7 +27291,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="255" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>5732647</v>
       </c>
@@ -27393,7 +27392,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="256" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>5750023</v>
       </c>
@@ -27488,7 +27487,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="257" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>5750994</v>
       </c>
@@ -27585,7 +27584,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="258" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>5751031</v>
       </c>
@@ -27682,7 +27681,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="259" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>5751031</v>
       </c>
@@ -27779,7 +27778,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="260" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>5755297</v>
       </c>
@@ -27878,7 +27877,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="261" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>5755297</v>
       </c>
@@ -27965,7 +27964,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="262" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>5755298</v>
       </c>
@@ -28062,7 +28061,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="263" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>5755298</v>
       </c>
@@ -28152,7 +28151,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="264" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>5755299</v>
       </c>
@@ -28249,7 +28248,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="265" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>5755300</v>
       </c>
@@ -28348,7 +28347,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="266" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>5755301</v>
       </c>
@@ -28449,7 +28448,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="267" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>5756084</v>
       </c>
@@ -28548,7 +28547,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="268" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>5756085</v>
       </c>
@@ -28647,7 +28646,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="269" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>5758767</v>
       </c>
@@ -28746,7 +28745,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="270" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>5759398</v>
       </c>
@@ -28847,7 +28846,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="271" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>5759735</v>
       </c>
@@ -28944,7 +28943,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="272" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>5759735</v>
       </c>
@@ -29031,7 +29030,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="273" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>5762777</v>
       </c>
@@ -29132,7 +29131,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="274" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>5765135</v>
       </c>
@@ -29233,7 +29232,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="275" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>5765136</v>
       </c>
@@ -29332,7 +29331,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="276" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>5765136</v>
       </c>
@@ -29422,7 +29421,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="277" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>5780967</v>
       </c>
@@ -29519,7 +29518,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="278" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>5831108</v>
       </c>
@@ -29620,7 +29619,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="279" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>5884960</v>
       </c>
@@ -29713,7 +29712,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="280" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>5909329</v>
       </c>
@@ -29810,7 +29809,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="281" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>5909763</v>
       </c>
@@ -29907,7 +29906,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="282" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>5909763</v>
       </c>
@@ -29997,7 +29996,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="283" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>5914367</v>
       </c>
@@ -30092,7 +30091,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="284" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>5998960</v>
       </c>
@@ -30191,7 +30190,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="285" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>5998960</v>
       </c>
@@ -30280,7 +30279,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="286" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>6029761</v>
       </c>
@@ -30379,7 +30378,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="287" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>6029761</v>
       </c>
@@ -30481,13 +30480,7 @@
       <c r="O289" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AG287" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="24">
-      <filters>
-        <filter val="Arabic"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AG287" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
